--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3005.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3005.xlsx
@@ -354,7 +354,7 @@
         <v>2.421537615985636</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.306989274513946</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3005.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3005.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.177096788628178</v>
+        <v>1.34889829158783</v>
       </c>
       <c r="B1">
-        <v>2.421537615985636</v>
+        <v>1.532660007476807</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>1.887895941734314</v>
       </c>
       <c r="D1">
-        <v>2.306989274513946</v>
+        <v>2.557666778564453</v>
       </c>
       <c r="E1">
-        <v>1.201280263388775</v>
+        <v>6.629444122314453</v>
       </c>
     </row>
   </sheetData>
